--- a/data/inputs/construtoras/BASE_GRUPOS_CONSTRUTORAS.xlsx
+++ b/data/inputs/construtoras/BASE_GRUPOS_CONSTRUTORAS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/construtoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2093DAA7-FBDE-40E0-8285-AB20898F26BC}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AA94FA-A3C6-4B2E-86B1-5ECF4776459C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$C$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$D$1:$D$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
-  <si>
-    <t>GRUPO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>SUDESTE</t>
   </si>
@@ -200,9 +197,6 @@
     <t>Fornecedor</t>
   </si>
   <si>
-    <t>Regiao</t>
-  </si>
-  <si>
     <t>GRUPO 1</t>
   </si>
   <si>
@@ -210,6 +204,21 @@
   </si>
   <si>
     <t>GRUPO 2</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Fornecedor Novo</t>
+  </si>
+  <si>
+    <t>NOVO</t>
+  </si>
+  <si>
+    <t>NAO NOVO</t>
   </si>
 </sst>
 </file>
@@ -548,559 +557,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>55</v>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/inputs/construtoras/BASE_GRUPOS_CONSTRUTORAS.xlsx
+++ b/data/inputs/construtoras/BASE_GRUPOS_CONSTRUTORAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/construtoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67AA94FA-A3C6-4B2E-86B1-5ECF4776459C}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D361C20488DEA4E38A076EC1B5A785BDEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{129DBF9C-D808-42E0-B02D-C89C60E1B117}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -188,12 +188,6 @@
     <t>Construtora Metropolitana</t>
   </si>
   <si>
-    <t>FG EMPREIT. MAO DE OBRA LTDA PU_SUL</t>
-  </si>
-  <si>
-    <t>JAPJ CONSTRUCOES CIVIS LTDA PU_SUDESTE</t>
-  </si>
-  <si>
     <t>Fornecedor</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>NAO NOVO</t>
+  </si>
+  <si>
+    <t>FG EMPREIT. MAO DE OBRA LTDA</t>
+  </si>
+  <si>
+    <t>JAPJ CONSTRUCOES CIVIS</t>
   </si>
 </sst>
 </file>
@@ -570,44 +570,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,27 +615,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,13 +657,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,13 +671,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -685,13 +685,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,13 +741,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,27 +755,27 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,13 +797,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -811,13 +811,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -825,13 +825,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -839,13 +839,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,13 +853,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -867,13 +867,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,13 +881,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,13 +895,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,13 +909,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,13 +923,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -951,13 +951,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -965,13 +965,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,13 +979,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,13 +993,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,13 +1021,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1035,13 +1035,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,13 +1049,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,13 +1077,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,13 +1091,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,13 +1105,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,13 +1119,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,13 +1133,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1147,13 +1147,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,13 +1161,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,13 +1175,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1189,13 +1189,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,13 +1217,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1231,13 +1231,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,13 +1245,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,13 +1259,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
